--- a/REGULAR/ADMIN/SARDINOLA, GINABLETH JAVIER.xlsx
+++ b/REGULAR/ADMIN/SARDINOLA, GINABLETH JAVIER.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="366">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1129,6 +1129,9 @@
   </si>
   <si>
     <t>HRMO</t>
+  </si>
+  <si>
+    <t>9/18,25/2023</t>
   </si>
 </sst>
 </file>
@@ -3561,7 +3564,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K554" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K555" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3939,12 +3942,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K554"/>
+  <dimension ref="A2:K555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A499" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E516" sqref="E516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,7 +4110,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>134.10799999999995</v>
+        <v>136.85799999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4117,7 +4120,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>191.58299999999997</v>
+        <v>193.33299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -15059,13 +15062,15 @@
         <v>45169</v>
       </c>
       <c r="B515" s="20"/>
-      <c r="C515" s="13"/>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
@@ -15076,45 +15081,61 @@
       <c r="A516" s="40">
         <v>45199</v>
       </c>
-      <c r="B516" s="20"/>
-      <c r="C516" s="13"/>
+      <c r="B516" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C516" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H516" s="39"/>
+      <c r="G516" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H516" s="39">
+        <v>2</v>
+      </c>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
-      <c r="K516" s="20"/>
+      <c r="K516" s="20" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>45230</v>
       </c>
-      <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+      <c r="B517" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
-      <c r="K517" s="20"/>
+      <c r="K517" s="50">
+        <v>45204</v>
+      </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A518" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B518" s="20"/>
+      <c r="A518" s="40"/>
+      <c r="B518" s="20" t="s">
+        <v>353</v>
+      </c>
       <c r="C518" s="13"/>
-      <c r="D518" s="39"/>
+      <c r="D518" s="39">
+        <v>1</v>
+      </c>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
       <c r="G518" s="13" t="str">
@@ -15124,11 +15145,13 @@
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
-      <c r="K518" s="20"/>
+      <c r="K518" s="50">
+        <v>45222</v>
+      </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -15146,7 +15169,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -15164,7 +15187,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -15182,7 +15205,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -15200,7 +15223,7 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -15218,7 +15241,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -15236,7 +15259,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -15254,7 +15277,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -15272,7 +15295,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -15290,7 +15313,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -15308,7 +15331,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -15326,7 +15349,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -15344,7 +15367,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -15362,7 +15385,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -15380,7 +15403,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -15398,7 +15421,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -15415,7 +15438,9 @@
       <c r="K534" s="20"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A535" s="40"/>
+      <c r="A535" s="40">
+        <v>45747</v>
+      </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
       <c r="D535" s="39"/>
@@ -15719,20 +15744,36 @@
       <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A554" s="41"/>
-      <c r="B554" s="15"/>
-      <c r="C554" s="42"/>
-      <c r="D554" s="43"/>
+      <c r="A554" s="40"/>
+      <c r="B554" s="20"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="39"/>
       <c r="E554" s="9"/>
-      <c r="F554" s="15"/>
-      <c r="G554" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H554" s="43"/>
+      <c r="F554" s="20"/>
+      <c r="G554" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H554" s="39"/>
       <c r="I554" s="9"/>
-      <c r="J554" s="12"/>
-      <c r="K554" s="15"/>
+      <c r="J554" s="11"/>
+      <c r="K554" s="20"/>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="41"/>
+      <c r="B555" s="15"/>
+      <c r="C555" s="42"/>
+      <c r="D555" s="43"/>
+      <c r="E555" s="9"/>
+      <c r="F555" s="15"/>
+      <c r="G555" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H555" s="43"/>
+      <c r="I555" s="9"/>
+      <c r="J555" s="12"/>
+      <c r="K555" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15902,7 +15943,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>325.69099999999992</v>
+        <v>330.19099999999992</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
